--- a/biology/Botanique/Hétéroside/Hétéroside.xlsx
+++ b/biology/Botanique/Hétéroside/Hétéroside.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9t%C3%A9roside</t>
+          <t>Hétéroside</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les hétérosides (ou glycosides) sont des molécules nées de la condensation d’un sucre (ose, alors qualifié de glycone) et d'une substance non glucidique (appelées aglycone ou génine).
 Ces deux éléments sont réunis par une liaison dite glycosidique  dont le type définit une classification du glycoside.
@@ -507,7 +519,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9t%C3%A9roside</t>
+          <t>Hétéroside</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -525,9 +537,11 @@
           <t>Hétérosides cardiotoniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Substance d'origine végétale à structure stéroïdique qui exerce, entre autres, son action sur le cœur en augmentant la contraction du muscle cardiaque (et donc le débit du cœur), en ralentissant le rythme cardiaque et en diminuant la résistance artérielle ; ces médicaments, par exemple la digitaline[1] sont très utiles dans certaines insuffisances cardiaques.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Substance d'origine végétale à structure stéroïdique qui exerce, entre autres, son action sur le cœur en augmentant la contraction du muscle cardiaque (et donc le débit du cœur), en ralentissant le rythme cardiaque et en diminuant la résistance artérielle ; ces médicaments, par exemple la digitaline sont très utiles dans certaines insuffisances cardiaques.
 </t>
         </is>
       </c>
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9t%C3%A9roside</t>
+          <t>Hétéroside</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,7 +570,9 @@
           <t>Hétérosides cyanogénétiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des substances d'origine végétale qui par hydrolyse, libèrent de l'acide cyanhydrique (très toxique). Les hétérosides cyanogénétiques sont fréquents chez de nombreuses plantes (fougères, gymnospermes, Rosaceae, Fabaceae, Poaceae, Araceae, Euphorbiaceae, Passifloraceae). Quelques exemples : noyau de pêche, de cerise ou d'abricot, pépins de pommes, amandes amères, graines de lin, manioc, sorgho.
 Sur le plan chimique on distingue deux familles d'hétérosides cyanogénétiques : ceux qui libèrent par hydrolyse de l'acétone (graines de lin, haricot de Lima : Linamaroside) et ceux qui libèrent par hydrolyse de l'aldéhyde benzoïque (prulaurasine dans le laurier-cerise, durrhine du sorgho, amygdaloside des amandes amères, viscianoside de la vesce, …).
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9t%C3%A9roside</t>
+          <t>Hétéroside</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,10 +604,12 @@
           <t>Hétérosides anthracéniques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des dérivés de l'anthracène, molécule à propriété laxative et purgative. On les trouve dans les plantes.
-soit sous forme de génines (ou aglycones)[2] libres
+soit sous forme de génines (ou aglycones) libres
 soit sous forme d'hétérosides.
 On distingue les : 
 O-hétérosides : frangulosides, sennosides…
